--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4290636666666667</v>
+        <v>0.292879</v>
       </c>
       <c r="H2">
-        <v>1.287191</v>
+        <v>0.878637</v>
       </c>
       <c r="I2">
-        <v>0.0126431569814401</v>
+        <v>0.007455471808396097</v>
       </c>
       <c r="J2">
-        <v>0.0126431569814401</v>
+        <v>0.007455471808396097</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.847798333333333</v>
+        <v>0.1809866666666667</v>
       </c>
       <c r="N2">
-        <v>5.543395</v>
+        <v>0.54296</v>
       </c>
       <c r="O2">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="P2">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="Q2">
-        <v>0.7928231281605557</v>
+        <v>0.05300719394666666</v>
       </c>
       <c r="R2">
-        <v>7.135408153445001</v>
+        <v>0.47706474552</v>
       </c>
       <c r="S2">
-        <v>0.0006371747455195324</v>
+        <v>0.0002972800551761829</v>
       </c>
       <c r="T2">
-        <v>0.0006371747455195323</v>
+        <v>0.0002972800551761829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4290636666666667</v>
+        <v>0.292879</v>
       </c>
       <c r="H3">
-        <v>1.287191</v>
+        <v>0.878637</v>
       </c>
       <c r="I3">
-        <v>0.0126431569814401</v>
+        <v>0.007455471808396097</v>
       </c>
       <c r="J3">
-        <v>0.0126431569814401</v>
+        <v>0.007455471808396097</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.439567</v>
       </c>
       <c r="O3">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="P3">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="Q3">
-        <v>0.2058886318107778</v>
+        <v>0.1405396477976667</v>
       </c>
       <c r="R3">
-        <v>1.852997686297</v>
+        <v>1.264856830179</v>
       </c>
       <c r="S3">
-        <v>0.0001654682260389737</v>
+        <v>0.0007881880013073011</v>
       </c>
       <c r="T3">
-        <v>0.0001654682260389737</v>
+        <v>0.0007881880013073011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4290636666666667</v>
+        <v>0.292879</v>
       </c>
       <c r="H4">
-        <v>1.287191</v>
+        <v>0.878637</v>
       </c>
       <c r="I4">
-        <v>0.0126431569814401</v>
+        <v>0.007455471808396097</v>
       </c>
       <c r="J4">
-        <v>0.0126431569814401</v>
+        <v>0.007455471808396097</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.337334</v>
+        <v>3.878113333333333</v>
       </c>
       <c r="N4">
-        <v>103.012002</v>
+        <v>11.63434</v>
       </c>
       <c r="O4">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="P4">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="Q4">
-        <v>14.732902429598</v>
+        <v>1.135817954953333</v>
       </c>
       <c r="R4">
-        <v>132.596121866382</v>
+        <v>10.22236159458</v>
       </c>
       <c r="S4">
-        <v>0.01184051400988159</v>
+        <v>0.006370003751912613</v>
       </c>
       <c r="T4">
-        <v>0.01184051400988159</v>
+        <v>0.006370003751912613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>79.31082599999999</v>
       </c>
       <c r="I5">
-        <v>0.7790135445677298</v>
+        <v>0.6729737392616156</v>
       </c>
       <c r="J5">
-        <v>0.7790135445677296</v>
+        <v>0.6729737392616155</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.847798333333333</v>
+        <v>0.1809866666666667</v>
       </c>
       <c r="N5">
-        <v>5.543395</v>
+        <v>0.54296</v>
       </c>
       <c r="O5">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="P5">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="Q5">
-        <v>48.85013736603</v>
+        <v>4.784734009439999</v>
       </c>
       <c r="R5">
-        <v>439.6512362942699</v>
+        <v>43.06260608496</v>
       </c>
       <c r="S5">
-        <v>0.03925979545653591</v>
+        <v>0.02683420653733982</v>
       </c>
       <c r="T5">
-        <v>0.0392597954565359</v>
+        <v>0.02683420653733981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>79.31082599999999</v>
       </c>
       <c r="I6">
-        <v>0.7790135445677298</v>
+        <v>0.6729737392616156</v>
       </c>
       <c r="J6">
-        <v>0.7790135445677296</v>
+        <v>0.6729737392616155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.439567</v>
       </c>
       <c r="O6">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="P6">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="Q6">
         <v>12.685916428038</v>
@@ -818,10 +818,10 @@
         <v>114.173247852342</v>
       </c>
       <c r="S6">
-        <v>0.01019539577568963</v>
+        <v>0.07114637947977506</v>
       </c>
       <c r="T6">
-        <v>0.01019539577568963</v>
+        <v>0.07114637947977505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>79.31082599999999</v>
       </c>
       <c r="I7">
-        <v>0.7790135445677298</v>
+        <v>0.6729737392616156</v>
       </c>
       <c r="J7">
-        <v>0.7790135445677296</v>
+        <v>0.6729737392616155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.337334</v>
+        <v>3.878113333333333</v>
       </c>
       <c r="N7">
-        <v>103.012002</v>
+        <v>11.63434</v>
       </c>
       <c r="O7">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="P7">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="Q7">
-        <v>907.7741073926279</v>
+        <v>102.52545726276</v>
       </c>
       <c r="R7">
-        <v>8169.966966533651</v>
+        <v>922.7291153648399</v>
       </c>
       <c r="S7">
-        <v>0.7295583533355042</v>
+        <v>0.5749931532445008</v>
       </c>
       <c r="T7">
-        <v>0.7295583533355041</v>
+        <v>0.5749931532445007</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.070428666666666</v>
+        <v>12.55394366666667</v>
       </c>
       <c r="H8">
-        <v>21.211286</v>
+        <v>37.661831</v>
       </c>
       <c r="I8">
-        <v>0.2083432984508302</v>
+        <v>0.3195707889299884</v>
       </c>
       <c r="J8">
-        <v>0.2083432984508302</v>
+        <v>0.3195707889299884</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.847798333333333</v>
+        <v>0.1809866666666667</v>
       </c>
       <c r="N8">
-        <v>5.543395</v>
+        <v>0.54296</v>
       </c>
       <c r="O8">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="P8">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="Q8">
-        <v>13.06472630621889</v>
+        <v>2.272096417751111</v>
       </c>
       <c r="R8">
-        <v>117.58253675597</v>
+        <v>20.44886775976</v>
       </c>
       <c r="S8">
-        <v>0.01049983705541137</v>
+        <v>0.01274259016831306</v>
       </c>
       <c r="T8">
-        <v>0.01049983705541137</v>
+        <v>0.01274259016831306</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.070428666666666</v>
+        <v>12.55394366666667</v>
       </c>
       <c r="H9">
-        <v>21.211286</v>
+        <v>37.661831</v>
       </c>
       <c r="I9">
-        <v>0.2083432984508302</v>
+        <v>0.3195707889299884</v>
       </c>
       <c r="J9">
-        <v>0.2083432984508302</v>
+        <v>0.3195707889299884</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.439567</v>
       </c>
       <c r="O9">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="P9">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="Q9">
-        <v>3.392785261462444</v>
+        <v>6.024081007464112</v>
       </c>
       <c r="R9">
-        <v>30.535067353162</v>
+        <v>54.216729067177</v>
       </c>
       <c r="S9">
-        <v>0.002726707898381295</v>
+        <v>0.03378483184917475</v>
       </c>
       <c r="T9">
-        <v>0.002726707898381295</v>
+        <v>0.03378483184917475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.070428666666666</v>
+        <v>12.55394366666667</v>
       </c>
       <c r="H10">
-        <v>21.211286</v>
+        <v>37.661831</v>
       </c>
       <c r="I10">
-        <v>0.2083432984508302</v>
+        <v>0.3195707889299884</v>
       </c>
       <c r="J10">
-        <v>0.2083432984508302</v>
+        <v>0.3195707889299884</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.337334</v>
+        <v>3.878113333333333</v>
       </c>
       <c r="N10">
-        <v>103.012002</v>
+        <v>11.63434</v>
       </c>
       <c r="O10">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="P10">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="Q10">
-        <v>242.7796706505079</v>
+        <v>48.68561631961555</v>
       </c>
       <c r="R10">
-        <v>2185.017035854572</v>
+        <v>438.17054687654</v>
       </c>
       <c r="S10">
-        <v>0.1951167534970375</v>
+        <v>0.2730433669125006</v>
       </c>
       <c r="T10">
-        <v>0.1951167534970375</v>
+        <v>0.2730433669125006</v>
       </c>
     </row>
   </sheetData>
